--- a/random_excels/competition_03.xlsx
+++ b/random_excels/competition_03.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76C7CA3-47D2-437F-8CDE-DB1547AAAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{A76C7CA3-47D2-437F-8CDE-DB1547AAAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A812C46-5BC2-40D6-81AF-2F88A79ADC1C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0E48E62F-1F55-468A-B0EE-C010DFE32756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0E48E62F-1F55-468A-B0EE-C010DFE32756}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>7327559.000000</t>
-  </si>
-  <si>
-    <t>7686939.000000</t>
-  </si>
-  <si>
-    <t>7247609.000000</t>
-  </si>
-  <si>
-    <t>7327574.000000</t>
-  </si>
-  <si>
-    <t>7247084.000000</t>
-  </si>
-  <si>
-    <t>7927129.000000</t>
-  </si>
-  <si>
-    <t>6927709.000000</t>
-  </si>
-  <si>
-    <t>7807859.000000</t>
-  </si>
-  <si>
-    <t>7407519.000000</t>
-  </si>
-  <si>
-    <t>7047154.000000</t>
-  </si>
-  <si>
-    <t>7646924.000000</t>
-  </si>
-  <si>
-    <t>7247749.000000</t>
-  </si>
-  <si>
-    <t>7647874.000000</t>
-  </si>
-  <si>
-    <t>8606694.000000</t>
-  </si>
-  <si>
-    <t>7206419.000000</t>
-  </si>
-  <si>
-    <t>7326744.000000</t>
-  </si>
-  <si>
-    <t>7447249.000000</t>
-  </si>
-  <si>
-    <t>7327639.000000</t>
-  </si>
-  <si>
-    <t>7326134.000000</t>
-  </si>
-  <si>
-    <t>8166664.000000</t>
-  </si>
-  <si>
-    <t>8166484.000000</t>
-  </si>
-  <si>
-    <t>6847379.000000</t>
-  </si>
-  <si>
-    <t>6927204.000000</t>
-  </si>
-  <si>
-    <t>7966299.000000</t>
-  </si>
-  <si>
-    <t>6328344.000000</t>
-  </si>
-  <si>
-    <t>7327324.000000</t>
-  </si>
-  <si>
-    <t>7567614.000000</t>
-  </si>
-  <si>
-    <t>7567319.000000</t>
-  </si>
-  <si>
-    <t>6927484.000000</t>
-  </si>
-  <si>
-    <t>7047004.000000</t>
-  </si>
-  <si>
-    <t>7006574.000000</t>
-  </si>
-  <si>
-    <t>8166904.000000</t>
-  </si>
-  <si>
-    <t>6607779.000000</t>
-  </si>
-  <si>
-    <t>8526524.000000</t>
-  </si>
-  <si>
-    <t>6967419.000000</t>
-  </si>
-  <si>
-    <t>7127514.000000</t>
-  </si>
-  <si>
-    <t>7567474.000000</t>
-  </si>
-  <si>
-    <t>7686919.000000</t>
-  </si>
-  <si>
-    <t>7206679.000000</t>
-  </si>
-  <si>
-    <t>6847529.000000</t>
-  </si>
-  <si>
-    <t>6888089.000000</t>
-  </si>
-  <si>
-    <t>7606499.000000</t>
-  </si>
-  <si>
-    <t>7326874.000000</t>
-  </si>
-  <si>
-    <t>7206444.000000</t>
-  </si>
-  <si>
-    <t>7247219.000000</t>
-  </si>
-  <si>
-    <t>7486629.000000</t>
-  </si>
-  <si>
-    <t>8206534.000000</t>
-  </si>
-  <si>
-    <t>6688524.000000</t>
-  </si>
-  <si>
-    <t>6927854.000000</t>
-  </si>
-  <si>
-    <t>6686939.000000</t>
-  </si>
-  <si>
-    <t>7607219.000000</t>
-  </si>
-  <si>
-    <t>7645994.000000</t>
-  </si>
-  <si>
-    <t>6767304.000000</t>
-  </si>
-  <si>
-    <t>7406764.000000</t>
-  </si>
-  <si>
-    <t>7806604.000000</t>
-  </si>
-  <si>
-    <t>6767884.000000</t>
-  </si>
-  <si>
-    <t>7687144.000000</t>
-  </si>
-  <si>
-    <t>6966489.000000</t>
-  </si>
-  <si>
-    <t>7367454.000000</t>
-  </si>
-  <si>
-    <t>7767879.000000</t>
-  </si>
-  <si>
-    <t>8166529.000000</t>
-  </si>
-  <si>
-    <t>6766899.000000</t>
-  </si>
-  <si>
-    <t>7567504.000000</t>
-  </si>
-  <si>
-    <t>7327419.000000</t>
-  </si>
-  <si>
-    <t>7966634.000000</t>
-  </si>
-  <si>
-    <t>7926314.000000</t>
-  </si>
-  <si>
-    <t>7127214.000000</t>
-  </si>
-  <si>
-    <t>7087959.000000</t>
-  </si>
-  <si>
-    <t>7926964.000000</t>
-  </si>
-  <si>
-    <t>7327439.000000</t>
-  </si>
-  <si>
-    <t>9125714.000000</t>
-  </si>
-  <si>
-    <t>7966829.000000</t>
-  </si>
-  <si>
-    <t>5888334.000000</t>
-  </si>
-  <si>
-    <t>7847109.000000</t>
-  </si>
-  <si>
-    <t>6848014.000000</t>
-  </si>
-  <si>
-    <t>7767254.000000</t>
-  </si>
-  <si>
-    <t>7088079.000000</t>
-  </si>
-  <si>
-    <t>7047484.000000</t>
-  </si>
-  <si>
-    <t>7287284.000000</t>
-  </si>
-  <si>
-    <t>9006719.000000</t>
-  </si>
-  <si>
-    <t>7087029.000000</t>
-  </si>
-  <si>
-    <t>7846669.000000</t>
-  </si>
-  <si>
-    <t>8406034.000000</t>
-  </si>
-  <si>
-    <t>7727534.000000</t>
-  </si>
-  <si>
-    <t>8246869.000000</t>
-  </si>
-  <si>
-    <t>6768229.000000</t>
-  </si>
-  <si>
-    <t>8086164.000000</t>
-  </si>
-  <si>
-    <t>7726779.000000</t>
-  </si>
-  <si>
-    <t>7049259.000000</t>
-  </si>
-  <si>
-    <t>7367659.000000</t>
-  </si>
-  <si>
-    <t>7686914.000000</t>
-  </si>
-  <si>
-    <t>7327549.000000</t>
-  </si>
-  <si>
-    <t>7246924.000000</t>
-  </si>
-  <si>
-    <t>7846689.000000</t>
-  </si>
-  <si>
-    <t>7246734.000000</t>
-  </si>
-  <si>
-    <t>6847859.000000</t>
-  </si>
-  <si>
-    <t>8446934.000000</t>
-  </si>
-  <si>
-    <t>7368069.000000</t>
-  </si>
-  <si>
-    <t>7726239.000000</t>
-  </si>
-  <si>
-    <t>7567409.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -436,21 +135,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -458,28 +151,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -876,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48545903-1B32-49CE-87A0-59AB2C8C11F9}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="R73" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T101"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +583,7 @@
     <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>33</v>
       </c>
@@ -1026,11 +703,18 @@
       <c r="S2">
         <v>656</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2">
+        <v>7327559</v>
+      </c>
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W2">
+        <f>MAX(T:T)</f>
+        <v>9125714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>36</v>
       </c>
@@ -1088,11 +772,18 @@
       <c r="S3">
         <v>599</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3">
+        <v>7686939</v>
+      </c>
+      <c r="V3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <f>MIN(T:T)</f>
+        <v>5888334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38</v>
       </c>
@@ -1150,11 +841,18 @@
       <c r="S4">
         <v>660</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4">
+        <v>7247609</v>
+      </c>
+      <c r="V4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <f>AVERAGEA(T:T)</f>
+        <v>7376609.6534653464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>27</v>
       </c>
@@ -1212,11 +910,18 @@
       <c r="S5">
         <v>613</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5">
+        <v>7327574</v>
+      </c>
+      <c r="V5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <f>STDEVA(T:T)</f>
+        <v>917559.27701382327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>35</v>
       </c>
@@ -1274,11 +979,11 @@
       <c r="S6">
         <v>650</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>7247084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -1336,11 +1041,11 @@
       <c r="S7">
         <v>565</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>7927129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>28</v>
       </c>
@@ -1398,11 +1103,11 @@
       <c r="S8">
         <v>573</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>6927709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1460,11 +1165,11 @@
       <c r="S9">
         <v>549</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>7807859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>29</v>
       </c>
@@ -1522,11 +1227,11 @@
       <c r="S10">
         <v>666</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>7407519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
@@ -1584,11 +1289,11 @@
       <c r="S11">
         <v>651</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>7047154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1646,11 +1351,11 @@
       <c r="S12">
         <v>494</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>7646924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
@@ -1708,11 +1413,11 @@
       <c r="S13">
         <v>570</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>7247749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>33</v>
       </c>
@@ -1770,11 +1475,11 @@
       <c r="S14">
         <v>524</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>7647874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33</v>
       </c>
@@ -1832,11 +1537,11 @@
       <c r="S15">
         <v>545</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>8606694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>27</v>
       </c>
@@ -1894,8 +1599,8 @@
       <c r="S16">
         <v>506</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>7206419</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1956,8 +1661,8 @@
       <c r="S17">
         <v>649</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>7326744</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -2018,8 +1723,8 @@
       <c r="S18">
         <v>654</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>7447249</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2080,8 +1785,8 @@
       <c r="S19">
         <v>584</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>7327639</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2142,8 +1847,8 @@
       <c r="S20">
         <v>582</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>7326134</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2204,8 +1909,8 @@
       <c r="S21">
         <v>597</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>8166664</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2266,8 +1971,8 @@
       <c r="S22">
         <v>535</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>8166484</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2328,8 +2033,8 @@
       <c r="S23">
         <v>593</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>6847379</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2390,8 +2095,8 @@
       <c r="S24">
         <v>491</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>6927204</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2452,8 +2157,8 @@
       <c r="S25">
         <v>574</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>7966299</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2514,8 +2219,8 @@
       <c r="S26">
         <v>824</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>6328344</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2576,8 +2281,8 @@
       <c r="S27">
         <v>550</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>7327324</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2638,8 +2343,8 @@
       <c r="S28">
         <v>614</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>7567614</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2700,8 +2405,8 @@
       <c r="S29">
         <v>737</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>7567319</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2762,8 +2467,8 @@
       <c r="S30">
         <v>600</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>6927484</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2824,8 +2529,8 @@
       <c r="S31">
         <v>466</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>7047004</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2886,8 +2591,8 @@
       <c r="S32">
         <v>671</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>7006574</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2948,8 +2653,8 @@
       <c r="S33">
         <v>546</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>8166904</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -3010,8 +2715,8 @@
       <c r="S34">
         <v>538</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>6607779</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3072,8 +2777,8 @@
       <c r="S35">
         <v>540</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>8526524</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3134,8 +2839,8 @@
       <c r="S36">
         <v>482</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>6967419</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3196,8 +2901,8 @@
       <c r="S37">
         <v>732</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>7127514</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3258,8 +2963,8 @@
       <c r="S38">
         <v>610</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>7567474</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3320,8 +3025,8 @@
       <c r="S39">
         <v>656</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>7686919</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3382,8 +3087,8 @@
       <c r="S40">
         <v>567</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>7206679</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3444,8 +3149,8 @@
       <c r="S41">
         <v>592</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>6847529</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3506,8 +3211,8 @@
       <c r="S42">
         <v>633</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>6888089</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3568,8 +3273,8 @@
       <c r="S43">
         <v>548</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>7606499</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3630,8 +3335,8 @@
       <c r="S44">
         <v>596</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>7326874</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3692,8 +3397,8 @@
       <c r="S45">
         <v>582</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>7206444</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3754,8 +3459,8 @@
       <c r="S46">
         <v>665</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>7247219</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3816,8 +3521,8 @@
       <c r="S47">
         <v>644</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>7486629</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3878,8 +3583,8 @@
       <c r="S48">
         <v>657</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>8206534</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3940,8 +3645,8 @@
       <c r="S49">
         <v>584</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>6688524</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -4002,8 +3707,8 @@
       <c r="S50">
         <v>597</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>6927854</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4064,8 +3769,8 @@
       <c r="S51">
         <v>650</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>6686939</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4126,8 +3831,8 @@
       <c r="S52">
         <v>604</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>7607219</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4188,8 +3893,8 @@
       <c r="S53">
         <v>536</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>7645994</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4250,8 +3955,8 @@
       <c r="S54">
         <v>629</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>6767304</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4312,8 +4017,8 @@
       <c r="S55">
         <v>602</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>7406764</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4374,8 +4079,8 @@
       <c r="S56">
         <v>561</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>7806604</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4436,8 +4141,8 @@
       <c r="S57">
         <v>613</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>6767884</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4498,8 +4203,8 @@
       <c r="S58">
         <v>514</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>7687144</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4560,8 +4265,8 @@
       <c r="S59">
         <v>629</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>6966489</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4622,8 +4327,8 @@
       <c r="S60">
         <v>690</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>7367454</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4684,8 +4389,8 @@
       <c r="S61">
         <v>638</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>7767879</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4746,8 +4451,8 @@
       <c r="S62">
         <v>558</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>8166529</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4808,8 +4513,8 @@
       <c r="S63">
         <v>502</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>6766899</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4870,8 +4575,8 @@
       <c r="S64">
         <v>568</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>7567504</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4932,8 +4637,8 @@
       <c r="S65">
         <v>549</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>7327419</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4994,8 +4699,8 @@
       <c r="S66">
         <v>522</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>7966634</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5056,8 +4761,8 @@
       <c r="S67">
         <v>608</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>7926314</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5118,8 +4823,8 @@
       <c r="S68">
         <v>538</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>7127214</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5180,8 +4885,8 @@
       <c r="S69">
         <v>705</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>7087959</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5242,8 +4947,8 @@
       <c r="S70">
         <v>543</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>7926964</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5304,8 +5009,8 @@
       <c r="S71">
         <v>557</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>7327439</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5366,8 +5071,8 @@
       <c r="S72">
         <v>517</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>9125714</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5428,8 +5133,8 @@
       <c r="S73">
         <v>637</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>7966829</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5490,8 +5195,8 @@
       <c r="S74">
         <v>616</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>5888334</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5552,8 +5257,8 @@
       <c r="S75">
         <v>563</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>7847109</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5614,8 +5319,8 @@
       <c r="S76">
         <v>600</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>6848014</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5676,8 +5381,8 @@
       <c r="S77">
         <v>638</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>7767254</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5738,8 +5443,8 @@
       <c r="S78">
         <v>527</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>7088079</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5800,8 +5505,8 @@
       <c r="S79">
         <v>625</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>7047484</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5862,8 +5567,8 @@
       <c r="S80">
         <v>585</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>7287284</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5924,8 +5629,8 @@
       <c r="S81">
         <v>593</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>9006719</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5986,8 +5691,8 @@
       <c r="S82">
         <v>618</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>7087029</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6048,8 +5753,8 @@
       <c r="S83">
         <v>539</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>7846669</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6110,8 +5815,8 @@
       <c r="S84">
         <v>528</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>8406034</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6172,8 +5877,8 @@
       <c r="S85">
         <v>586</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>7727534</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6234,8 +5939,8 @@
       <c r="S86">
         <v>589</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>8246869</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6296,8 +6001,8 @@
       <c r="S87">
         <v>653</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>6768229</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6358,8 +6063,8 @@
       <c r="S88">
         <v>566</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>8086164</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6420,8 +6125,8 @@
       <c r="S89">
         <v>609</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>7726779</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6482,8 +6187,8 @@
       <c r="S90">
         <v>582</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>7049259</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6544,8 +6249,8 @@
       <c r="S91">
         <v>675</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>7367659</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6606,8 +6311,8 @@
       <c r="S92">
         <v>654</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>7686914</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6668,8 +6373,8 @@
       <c r="S93">
         <v>562</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>7327549</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6730,8 +6435,8 @@
       <c r="S94">
         <v>659</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>7246924</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6792,8 +6497,8 @@
       <c r="S95">
         <v>629</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>7846689</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6854,8 +6559,8 @@
       <c r="S96">
         <v>655</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>7246734</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6916,8 +6621,8 @@
       <c r="S97">
         <v>542</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>6847859</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6978,8 +6683,8 @@
       <c r="S98">
         <v>539</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>8446934</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7040,8 +6745,8 @@
       <c r="S99">
         <v>621</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>7368069</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7102,8 +6807,8 @@
       <c r="S100">
         <v>587</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>7726239</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7164,8 +6869,8 @@
       <c r="S101">
         <v>638</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>7567409</v>
       </c>
     </row>
   </sheetData>
@@ -7173,549 +6878,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D568F247-5586-4B39-99F8-CACE97EDC7C1}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>7327559</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>7686939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>7247609</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <f>MAX(A1:A100)</f>
-        <v>9125714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>7327574</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4">
-        <f>MIN(A1:A100)</f>
-        <v>5888334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>7247084</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGEA(A1:A100)</f>
-        <v>7450375.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>7927129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6">
-        <f>STDEVA(A1:A100)</f>
-        <v>543399.2245231038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6927709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7807859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7407519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>7047154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7646924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>7247749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7647874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>8606694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>7206419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>7326744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>7447249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>7327639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>7326134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>8166664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>8166484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>6847379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>6927204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>7966299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>6328344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>7327324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>7567614</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>7567319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>6927484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>7047004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>7006574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>8166904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>6607779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>8526524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>6967419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>7127514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>7567474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>7686919</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>7206679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>6847529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>6888089</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>7606499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>7326874</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>7206444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>7247219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>7486629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>8206534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>6688524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>6927854</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>6686939</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>7607219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>7645994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>6767304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>7406764</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>7806604</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>6767884</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>7687144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>6966489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>7367454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>7767879</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>8166529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>6766899</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>7567504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>7327419</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>7966634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>7926314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>7127214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>7087959</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>7926964</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>7327439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>9125714</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>7966829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>5888334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>7847109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>6848014</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>7767254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>7088079</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>7047484</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>7287284</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>9006719</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>7087029</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>7846669</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>8406034</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>7727534</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>8246869</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>6768229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>8086164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>7726779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>7049259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>7367659</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>7686914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>7327549</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>7246924</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>7846689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>7246734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>6847859</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>8446934</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>7368069</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>7726239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>7567409</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
